--- a/config_aomi_6.1/game_module_config.xlsx
+++ b/config_aomi_6.1/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi_6.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -37,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -501,7 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +518,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -521,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -530,7 +537,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -548,7 +556,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -557,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -566,7 +575,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -750,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -767,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -784,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -846,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -863,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1132,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1257,7 +1275,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1266,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1292,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1309,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1326,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1343,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1352,7 +1375,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1361,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1378,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1387,7 +1412,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1396,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1413,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1422,7 +1449,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1431,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1440,7 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1457,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1466,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1475,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1492,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1501,7 +1532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1510,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1527,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1536,7 +1569,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1545,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1562,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1579,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1596,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1613,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1630,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1639,7 +1678,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1648,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1665,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1674,7 +1715,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1683,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1700,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1709,7 +1752,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1718,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1735,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1789,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1770,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1779,7 +1826,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1788,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1805,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1814,7 +1863,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1823,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1840,6 +1890,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1849,7 +1900,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1858,6 +1909,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1884,6 +1936,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1901,6 +1954,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1918,6 +1972,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1935,6 +1990,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1952,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -1978,7 +2035,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1987,6 +2044,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2004,7 +2062,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2013,6 +2071,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2039,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2065,6 +2125,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2082,6 +2143,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2114,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2124,6 +2187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2799,6 +2863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2809,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3127,6 +3193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3137,6 +3204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3455,6 +3523,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3464,7 +3533,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3473,6 +3542,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3553,6 +3623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3563,6 +3634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3821,14 +3893,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3840,49 +3906,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3894,171 +3963,52 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4073,13 +4023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4101,182 +4051,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4299,255 +4075,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4577,16 +4111,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4704,63 +4238,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5018,20 +4508,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C341" sqref="C341"/>
+      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5047,7 +4536,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5076,7 +4565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6400,7 +5889,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6582,7 +6071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6946,7 +6435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6998,7 +6487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8116,7 +7605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9686,7 +9175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9710,7 +9199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9734,7 +9223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10756,7 +10245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10779,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10802,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10825,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10848,7 +10337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10871,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10894,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10917,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10940,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11367,7 +10856,7 @@
         <v>719</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -11498,7 +10987,7 @@
         <v>735</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -11510,7 +10999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11536,7 +11025,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11562,7 +11051,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11588,7 +11077,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11614,7 +11103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11692,7 +11181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11718,7 +11207,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11744,7 +11233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11770,7 +11259,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11796,7 +11285,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11822,7 +11311,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12010,7 +11499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12036,7 +11525,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -12059,7 +11548,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12213,7 +11702,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12239,7 +11728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12291,7 +11780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12317,7 +11806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12343,7 +11832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -12369,7 +11858,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12395,7 +11884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12421,7 +11910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12447,7 +11936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12473,7 +11962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12499,7 +11988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12525,7 +12014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12629,7 +12118,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12655,7 +12144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12681,7 +12170,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12707,7 +12196,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12733,7 +12222,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12759,7 +12248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12785,7 +12274,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12811,7 +12300,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12837,7 +12326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12863,7 +12352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12889,7 +12378,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12915,7 +12404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12941,7 +12430,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12967,7 +12456,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12990,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13016,7 +12505,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13042,7 +12531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13068,7 +12557,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13094,7 +12583,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13117,7 +12606,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13140,7 +12629,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13163,7 +12652,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13186,7 +12675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13209,7 +12698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13235,7 +12724,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13259,7 +12748,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13285,7 +12774,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13308,7 +12797,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13337,7 +12826,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13363,7 +12852,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13389,7 +12878,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13415,7 +12904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13568,7 +13057,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:9">
       <c r="A336" s="13">
         <v>335</v>
       </c>
@@ -13591,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9">
       <c r="A337" s="13">
         <v>336</v>
       </c>
@@ -13637,7 +13126,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:9">
       <c r="A339" s="13">
         <v>338</v>
       </c>
@@ -13660,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:9">
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -13687,39 +13176,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H340"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_aomi_6.1/game_module_config.xlsx
+++ b/config_aomi_6.1/game_module_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi_6.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -42,7 +37,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -507,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -518,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -527,7 +521,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -537,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -546,7 +539,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -556,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +557,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -575,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -673,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -759,7 +750,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -777,7 +767,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -795,7 +784,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -858,7 +846,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -876,7 +863,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1146,7 +1132,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1152,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,7 +1248,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1275,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1284,7 +1266,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1311,7 +1292,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1329,7 +1309,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,7 +1326,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1365,7 +1343,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1375,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1384,7 +1361,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,7 +1378,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1412,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1421,7 +1396,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1439,7 +1413,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1449,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1458,7 +1431,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1468,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1485,7 +1457,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1495,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1504,7 +1475,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1522,7 +1492,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1532,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1510,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1559,7 +1527,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1569,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1578,7 +1545,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1596,7 +1562,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1614,7 +1579,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1632,7 +1596,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1650,7 +1613,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1668,7 +1630,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1678,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1687,7 +1648,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1705,7 +1665,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1715,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1724,7 +1683,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1742,7 +1700,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1752,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1761,7 +1718,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1779,7 +1735,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1789,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1798,7 +1753,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1816,7 +1770,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1826,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1835,7 +1788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1853,7 +1805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1863,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1872,7 +1823,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1890,7 +1840,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1900,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1909,7 +1858,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1936,7 +1884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1954,7 +1901,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1972,7 +1918,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1990,7 +1935,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2008,7 +1952,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2035,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2044,7 +1987,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2062,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2071,7 +2013,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2098,7 +2039,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2125,7 +2065,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2143,7 +2082,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2176,7 +2114,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2187,7 +2124,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2863,7 +2799,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2874,7 +2809,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3193,7 +3127,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3204,7 +3137,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3523,7 +3455,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3533,7 +3464,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3542,7 +3473,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3623,7 +3553,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3634,7 +3563,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3880,6 +3808,18 @@
   </si>
   <si>
     <t>2021年5月17日 23:59:59</t>
+  </si>
+  <si>
+    <t>sys_txz</t>
+  </si>
+  <si>
+    <t>通行证</t>
+  </si>
+  <si>
+    <t>SYS_TXZ_Manager</t>
+  </si>
+  <si>
+    <t>长期</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3893,8 +3833,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3906,52 +3852,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3963,52 +3906,184 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4023,13 +4098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4051,8 +4126,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4075,15 +4336,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4111,16 +4614,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4231,6 +4734,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4238,19 +4744,63 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4508,19 +5058,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I340"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C330" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
+      <selection pane="bottomRight" activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4536,7 +5087,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4565,7 +5116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5889,7 +6440,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6071,7 +6622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6435,7 +6986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6487,7 +7038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7605,7 +8156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9175,7 +9726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9199,7 +9750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9223,7 +9774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10245,7 +10796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10268,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10291,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10314,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10337,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10360,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10383,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10406,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10429,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -10999,7 +11550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11025,7 +11576,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11051,7 +11602,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11077,7 +11628,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11103,7 +11654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11181,7 +11732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11207,7 +11758,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11233,7 +11784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11259,7 +11810,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11285,7 +11836,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11311,7 +11862,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11499,7 +12050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11525,7 +12076,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -11548,7 +12099,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11702,7 +12253,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11728,7 +12279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11780,7 +12331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11806,7 +12357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11832,7 +12383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -11858,7 +12409,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -11884,7 +12435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -11910,7 +12461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -11936,7 +12487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -11962,7 +12513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -11988,7 +12539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12014,7 +12565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12118,7 +12669,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12144,7 +12695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12170,7 +12721,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12196,7 +12747,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12222,7 +12773,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12248,7 +12799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12274,7 +12825,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12300,7 +12851,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12326,7 +12877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12352,7 +12903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12378,7 +12929,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12404,7 +12955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12430,7 +12981,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12456,7 +13007,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12479,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -12505,7 +13056,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -12531,7 +13082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -12557,7 +13108,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -12583,7 +13134,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -12606,7 +13157,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -12629,7 +13180,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -12652,7 +13203,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -12675,7 +13226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -12698,7 +13249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -12724,7 +13275,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -12748,7 +13299,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -12774,7 +13325,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -12797,7 +13348,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -12826,7 +13377,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -12848,11 +13399,11 @@
       <c r="G327" s="5">
         <v>1</v>
       </c>
-      <c r="I327" s="49">
+      <c r="I327" s="50">
         <v>44354</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -12878,7 +13429,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -12904,7 +13455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13057,7 +13608,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:7">
       <c r="A336" s="13">
         <v>335</v>
       </c>
@@ -13080,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:7">
       <c r="A337" s="13">
         <v>336</v>
       </c>
@@ -13122,11 +13673,11 @@
       <c r="G338">
         <v>1</v>
       </c>
-      <c r="I338" s="50">
+      <c r="I338" s="51">
         <v>44354</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:7">
       <c r="A339" s="13">
         <v>338</v>
       </c>
@@ -13149,7 +13700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="15.75">
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -13175,37 +13726,66 @@
         <v>998</v>
       </c>
     </row>
+    <row r="341" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A341" s="5">
+        <v>340</v>
+      </c>
+      <c r="B341" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D341" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1002</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H340"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <autoFilter ref="A1:H340">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_aomi_6.1/game_module_config.xlsx
+++ b/config_aomi_6.1/game_module_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$341</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3836,11 +3836,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3915,21 +3915,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3943,6 +3930,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3951,29 +3946,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3994,39 +3985,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4039,7 +4000,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4055,7 +4016,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4063,13 +4031,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4078,12 +4053,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4128,19 +4115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4158,49 +4145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4218,7 +4163,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4230,7 +4229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4242,55 +4247,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4302,13 +4271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4337,6 +4312,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4348,15 +4332,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4378,9 +4353,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4396,15 +4382,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4426,11 +4403,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4442,10 +4417,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,31 +4429,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4487,106 +4462,106 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4733,9 +4708,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5067,11 +5039,11 @@
   <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C330" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B345" sqref="B345"/>
+      <selection pane="bottomRight" activeCell="G335" sqref="G335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13399,7 +13371,7 @@
       <c r="G327" s="5">
         <v>1</v>
       </c>
-      <c r="I327" s="50">
+      <c r="I327" s="49">
         <v>44354</v>
       </c>
     </row>
@@ -13596,13 +13568,13 @@
         <v>982</v>
       </c>
       <c r="E335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" s="32" t="s">
         <v>983</v>
@@ -13673,7 +13645,7 @@
       <c r="G338">
         <v>1</v>
       </c>
-      <c r="I338" s="51">
+      <c r="I338" s="50">
         <v>44354</v>
       </c>
     </row>
@@ -13730,13 +13702,13 @@
       <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="49" t="s">
+      <c r="B341" s="47" t="s">
         <v>999</v>
       </c>
       <c r="C341" t="s">
         <v>1000</v>
       </c>
-      <c r="D341" s="49" t="s">
+      <c r="D341" s="47" t="s">
         <v>1001</v>
       </c>
       <c r="E341">
@@ -13753,7 +13725,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
+  <autoFilter ref="A1:H341">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
